--- a/副業紹介サイト設計書(簡易版).xlsx
+++ b/副業紹介サイト設計書(簡易版).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rooon\OneDrive\デスクトップ\開発共有\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rooon\OneDrive\デスクトップ\firstPJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7969732-4DAB-4273-A55D-E5FCDC207EF7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEA718A-8714-471B-AA80-54C58B70BE62}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9624" tabRatio="1000" activeTab="3" xr2:uid="{CFC959FC-48E3-406C-8FDA-EB86332A34C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9624" tabRatio="1000" activeTab="4" xr2:uid="{CFC959FC-48E3-406C-8FDA-EB86332A34C7}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="24" r:id="rId1"/>
@@ -1047,31 +1047,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自分の"得意"や"資産"をプロモーションし、提供するのが世に出回っている既存のビジネスモデル。</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トクイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シサン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>デマワ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>キゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>受注者は自分の過去のＥＳ、社会人の立場で得た知見・スキルをもとに、発注者に寄り添ったＥＳを作成する。</t>
     <rPh sb="0" eb="3">
       <t>ジュチュウシャ</t>
@@ -1154,6 +1129,25 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存のビジネスモデルは、自分の"得意"や"資産"をプロモーションし提供する形式。</t>
+    <rPh sb="12" eb="14">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケイシキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1580,6 +1574,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1640,6 +1637,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1664,37 +1667,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1730,16 +1727,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1751,12 +1748,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1767,10 +1758,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2479,6 +2473,69 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0"/>
             <a:t>国籍：日本</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65990807-78BD-411B-9CB0-0A8846B1F41C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4602480" y="4358640"/>
+          <a:ext cx="685800" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>確定</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6386,16 +6443,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6410,7 +6467,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3063240" y="2461260"/>
+          <a:off x="3086100" y="2446020"/>
           <a:ext cx="1828800" cy="556260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6584,6 +6641,108 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>プロフィール作成画面へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37D5AFE-3C4E-454D-9124-0F4E5878DDCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2087880" y="3246120"/>
+          <a:ext cx="1828800" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>受注</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>者候補</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>一覧画面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>へ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6999,6 +7158,72 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C1E6A2D-D9D3-4642-944C-FE54004A14F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3710940" y="3848100"/>
+          <a:ext cx="1752600" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「案件作成保存」ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7310,380 +7535,380 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="46"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="45"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="45"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="45"/>
-      <c r="Z35" s="45"/>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="45"/>
-      <c r="AC35" s="45"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="46"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9933,7 +10158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE37375-1156-4C77-A5ED-CD46F92A7DD1}">
   <dimension ref="B2:AE29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AW23" sqref="AW23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -18161,17 +18388,17 @@
     </row>
     <row r="28" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C28" s="34"/>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="103"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="102"/>
       <c r="M28" s="104" t="s">
         <v>128</v>
       </c>
@@ -18185,385 +18412,385 @@
       <c r="C29" s="34">
         <v>1</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="99" t="s">
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
     </row>
     <row r="30" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="34">
         <v>2</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="99" t="s">
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
     </row>
     <row r="31" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C31" s="34">
         <v>3</v>
       </c>
-      <c r="D31" s="96" t="s">
+      <c r="D31" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="99" t="s">
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
     </row>
     <row r="32" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C32" s="34">
         <v>4</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="99" t="s">
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
     </row>
     <row r="33" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C33" s="34">
         <v>5</v>
       </c>
-      <c r="D33" s="96" t="s">
+      <c r="D33" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="99" t="s">
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
     </row>
     <row r="34" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C34" s="34">
         <v>6</v>
       </c>
-      <c r="D34" s="96" t="s">
+      <c r="D34" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="99" t="s">
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
     </row>
     <row r="35" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C35" s="34">
         <v>7</v>
       </c>
-      <c r="D35" s="96" t="s">
+      <c r="D35" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="99" t="s">
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="99"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103"/>
     </row>
     <row r="36" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C36" s="34">
         <v>8</v>
       </c>
-      <c r="D36" s="96" t="s">
+      <c r="D36" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="100" t="s">
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="N36" s="100"/>
-      <c r="O36" s="100"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="100"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="105"/>
     </row>
     <row r="37" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C37" s="34">
         <v>9</v>
       </c>
-      <c r="D37" s="96" t="s">
+      <c r="D37" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="98"/>
-      <c r="M37" s="99" t="s">
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="N37" s="99"/>
-      <c r="O37" s="99"/>
-      <c r="P37" s="99"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="99"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="103"/>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="103"/>
     </row>
     <row r="38" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C38" s="34">
         <v>10</v>
       </c>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="99" t="s">
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="N38" s="99"/>
-      <c r="O38" s="99"/>
-      <c r="P38" s="99"/>
-      <c r="Q38" s="99"/>
-      <c r="R38" s="99"/>
+      <c r="N38" s="103"/>
+      <c r="O38" s="103"/>
+      <c r="P38" s="103"/>
+      <c r="Q38" s="103"/>
+      <c r="R38" s="103"/>
     </row>
     <row r="39" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C39" s="34">
         <v>11</v>
       </c>
-      <c r="D39" s="96" t="s">
+      <c r="D39" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="99" t="s">
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N39" s="99"/>
-      <c r="O39" s="99"/>
-      <c r="P39" s="99"/>
-      <c r="Q39" s="99"/>
-      <c r="R39" s="99"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="103"/>
+      <c r="R39" s="103"/>
     </row>
     <row r="40" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C40" s="34">
         <v>12</v>
       </c>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="99" t="s">
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="N40" s="99"/>
-      <c r="O40" s="99"/>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="99"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
     </row>
     <row r="41" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C41" s="34">
         <v>13</v>
       </c>
-      <c r="D41" s="96" t="s">
+      <c r="D41" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="99" t="s">
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="N41" s="99"/>
-      <c r="O41" s="99"/>
-      <c r="P41" s="99"/>
-      <c r="Q41" s="99"/>
-      <c r="R41" s="99"/>
+      <c r="N41" s="103"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="103"/>
     </row>
     <row r="42" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C42" s="34">
         <v>14</v>
       </c>
-      <c r="D42" s="96" t="s">
+      <c r="D42" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="98"/>
-      <c r="M42" s="99" t="s">
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="N42" s="99"/>
-      <c r="O42" s="99"/>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="99"/>
+      <c r="N42" s="103"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="103"/>
+      <c r="Q42" s="103"/>
+      <c r="R42" s="103"/>
     </row>
     <row r="43" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C43" s="34">
         <v>15</v>
       </c>
-      <c r="D43" s="96" t="s">
+      <c r="D43" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="99" t="s">
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="N43" s="99"/>
-      <c r="O43" s="99"/>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="99"/>
+      <c r="N43" s="103"/>
+      <c r="O43" s="103"/>
+      <c r="P43" s="103"/>
+      <c r="Q43" s="103"/>
+      <c r="R43" s="103"/>
     </row>
     <row r="44" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C44" s="34">
         <v>16</v>
       </c>
-      <c r="D44" s="96" t="s">
+      <c r="D44" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="99" t="s">
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="N44" s="99"/>
-      <c r="O44" s="99"/>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="99"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="103"/>
+      <c r="P44" s="103"/>
+      <c r="Q44" s="103"/>
+      <c r="R44" s="103"/>
     </row>
     <row r="47" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
@@ -18572,367 +18799,367 @@
     </row>
     <row r="48" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C48" s="34"/>
-      <c r="D48" s="101" t="s">
+      <c r="D48" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="102"/>
-      <c r="L48" s="103"/>
-      <c r="M48" s="101" t="s">
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="N48" s="102"/>
-      <c r="O48" s="102"/>
-      <c r="P48" s="103"/>
-      <c r="Q48" s="101" t="s">
+      <c r="N48" s="101"/>
+      <c r="O48" s="101"/>
+      <c r="P48" s="102"/>
+      <c r="Q48" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="R48" s="103"/>
-      <c r="S48" s="101" t="s">
+      <c r="R48" s="102"/>
+      <c r="S48" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="T48" s="102"/>
-      <c r="U48" s="102"/>
-      <c r="V48" s="102"/>
-      <c r="W48" s="102"/>
-      <c r="X48" s="102"/>
-      <c r="Y48" s="102"/>
-      <c r="Z48" s="102"/>
-      <c r="AA48" s="102"/>
-      <c r="AB48" s="103"/>
+      <c r="T48" s="101"/>
+      <c r="U48" s="101"/>
+      <c r="V48" s="101"/>
+      <c r="W48" s="101"/>
+      <c r="X48" s="101"/>
+      <c r="Y48" s="101"/>
+      <c r="Z48" s="101"/>
+      <c r="AA48" s="101"/>
+      <c r="AB48" s="102"/>
     </row>
     <row r="49" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C49" s="34">
         <v>1</v>
       </c>
-      <c r="D49" s="96"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="97"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="97"/>
-      <c r="O49" s="97"/>
-      <c r="P49" s="98"/>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="98"/>
-      <c r="S49" s="96"/>
-      <c r="T49" s="97"/>
-      <c r="U49" s="97"/>
-      <c r="V49" s="97"/>
-      <c r="W49" s="97"/>
-      <c r="X49" s="97"/>
-      <c r="Y49" s="97"/>
-      <c r="Z49" s="97"/>
-      <c r="AA49" s="97"/>
-      <c r="AB49" s="98"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="97"/>
+      <c r="N49" s="98"/>
+      <c r="O49" s="98"/>
+      <c r="P49" s="99"/>
+      <c r="Q49" s="97"/>
+      <c r="R49" s="99"/>
+      <c r="S49" s="97"/>
+      <c r="T49" s="98"/>
+      <c r="U49" s="98"/>
+      <c r="V49" s="98"/>
+      <c r="W49" s="98"/>
+      <c r="X49" s="98"/>
+      <c r="Y49" s="98"/>
+      <c r="Z49" s="98"/>
+      <c r="AA49" s="98"/>
+      <c r="AB49" s="99"/>
     </row>
     <row r="50" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C50" s="34">
         <v>2</v>
       </c>
-      <c r="D50" s="96"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="97"/>
-      <c r="O50" s="97"/>
-      <c r="P50" s="98"/>
-      <c r="Q50" s="96"/>
-      <c r="R50" s="98"/>
-      <c r="S50" s="96"/>
-      <c r="T50" s="97"/>
-      <c r="U50" s="97"/>
-      <c r="V50" s="97"/>
-      <c r="W50" s="97"/>
-      <c r="X50" s="97"/>
-      <c r="Y50" s="97"/>
-      <c r="Z50" s="97"/>
-      <c r="AA50" s="97"/>
-      <c r="AB50" s="98"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="99"/>
+      <c r="M50" s="97"/>
+      <c r="N50" s="98"/>
+      <c r="O50" s="98"/>
+      <c r="P50" s="99"/>
+      <c r="Q50" s="97"/>
+      <c r="R50" s="99"/>
+      <c r="S50" s="97"/>
+      <c r="T50" s="98"/>
+      <c r="U50" s="98"/>
+      <c r="V50" s="98"/>
+      <c r="W50" s="98"/>
+      <c r="X50" s="98"/>
+      <c r="Y50" s="98"/>
+      <c r="Z50" s="98"/>
+      <c r="AA50" s="98"/>
+      <c r="AB50" s="99"/>
     </row>
     <row r="51" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C51" s="34">
         <v>3</v>
       </c>
-      <c r="D51" s="96"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="97"/>
-      <c r="L51" s="98"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="97"/>
-      <c r="O51" s="97"/>
-      <c r="P51" s="98"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="98"/>
-      <c r="S51" s="96"/>
-      <c r="T51" s="97"/>
-      <c r="U51" s="97"/>
-      <c r="V51" s="97"/>
-      <c r="W51" s="97"/>
-      <c r="X51" s="97"/>
-      <c r="Y51" s="97"/>
-      <c r="Z51" s="97"/>
-      <c r="AA51" s="97"/>
-      <c r="AB51" s="98"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="98"/>
+      <c r="K51" s="98"/>
+      <c r="L51" s="99"/>
+      <c r="M51" s="97"/>
+      <c r="N51" s="98"/>
+      <c r="O51" s="98"/>
+      <c r="P51" s="99"/>
+      <c r="Q51" s="97"/>
+      <c r="R51" s="99"/>
+      <c r="S51" s="97"/>
+      <c r="T51" s="98"/>
+      <c r="U51" s="98"/>
+      <c r="V51" s="98"/>
+      <c r="W51" s="98"/>
+      <c r="X51" s="98"/>
+      <c r="Y51" s="98"/>
+      <c r="Z51" s="98"/>
+      <c r="AA51" s="98"/>
+      <c r="AB51" s="99"/>
     </row>
     <row r="52" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C52" s="34">
         <v>4</v>
       </c>
-      <c r="D52" s="96"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="98"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="97"/>
-      <c r="O52" s="97"/>
-      <c r="P52" s="98"/>
-      <c r="Q52" s="96"/>
-      <c r="R52" s="98"/>
-      <c r="S52" s="96"/>
-      <c r="T52" s="97"/>
-      <c r="U52" s="97"/>
-      <c r="V52" s="97"/>
-      <c r="W52" s="97"/>
-      <c r="X52" s="97"/>
-      <c r="Y52" s="97"/>
-      <c r="Z52" s="97"/>
-      <c r="AA52" s="97"/>
-      <c r="AB52" s="98"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="99"/>
+      <c r="M52" s="97"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="98"/>
+      <c r="P52" s="99"/>
+      <c r="Q52" s="97"/>
+      <c r="R52" s="99"/>
+      <c r="S52" s="97"/>
+      <c r="T52" s="98"/>
+      <c r="U52" s="98"/>
+      <c r="V52" s="98"/>
+      <c r="W52" s="98"/>
+      <c r="X52" s="98"/>
+      <c r="Y52" s="98"/>
+      <c r="Z52" s="98"/>
+      <c r="AA52" s="98"/>
+      <c r="AB52" s="99"/>
     </row>
     <row r="53" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C53" s="34">
         <v>5</v>
       </c>
-      <c r="D53" s="96"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="98"/>
-      <c r="M53" s="96"/>
-      <c r="N53" s="97"/>
-      <c r="O53" s="97"/>
-      <c r="P53" s="98"/>
-      <c r="Q53" s="96"/>
-      <c r="R53" s="98"/>
-      <c r="S53" s="96"/>
-      <c r="T53" s="97"/>
-      <c r="U53" s="97"/>
-      <c r="V53" s="97"/>
-      <c r="W53" s="97"/>
-      <c r="X53" s="97"/>
-      <c r="Y53" s="97"/>
-      <c r="Z53" s="97"/>
-      <c r="AA53" s="97"/>
-      <c r="AB53" s="98"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="99"/>
+      <c r="M53" s="97"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
+      <c r="P53" s="99"/>
+      <c r="Q53" s="97"/>
+      <c r="R53" s="99"/>
+      <c r="S53" s="97"/>
+      <c r="T53" s="98"/>
+      <c r="U53" s="98"/>
+      <c r="V53" s="98"/>
+      <c r="W53" s="98"/>
+      <c r="X53" s="98"/>
+      <c r="Y53" s="98"/>
+      <c r="Z53" s="98"/>
+      <c r="AA53" s="98"/>
+      <c r="AB53" s="99"/>
     </row>
     <row r="54" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C54" s="34">
         <v>6</v>
       </c>
-      <c r="D54" s="96"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="97"/>
-      <c r="L54" s="98"/>
-      <c r="M54" s="96"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="97"/>
-      <c r="P54" s="98"/>
-      <c r="Q54" s="96"/>
-      <c r="R54" s="98"/>
-      <c r="S54" s="96"/>
-      <c r="T54" s="97"/>
-      <c r="U54" s="97"/>
-      <c r="V54" s="97"/>
-      <c r="W54" s="97"/>
-      <c r="X54" s="97"/>
-      <c r="Y54" s="97"/>
-      <c r="Z54" s="97"/>
-      <c r="AA54" s="97"/>
-      <c r="AB54" s="98"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="99"/>
+      <c r="M54" s="97"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="99"/>
+      <c r="Q54" s="97"/>
+      <c r="R54" s="99"/>
+      <c r="S54" s="97"/>
+      <c r="T54" s="98"/>
+      <c r="U54" s="98"/>
+      <c r="V54" s="98"/>
+      <c r="W54" s="98"/>
+      <c r="X54" s="98"/>
+      <c r="Y54" s="98"/>
+      <c r="Z54" s="98"/>
+      <c r="AA54" s="98"/>
+      <c r="AB54" s="99"/>
     </row>
     <row r="55" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C55" s="34">
         <v>7</v>
       </c>
-      <c r="D55" s="96"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="97"/>
-      <c r="K55" s="97"/>
-      <c r="L55" s="98"/>
-      <c r="M55" s="96"/>
-      <c r="N55" s="97"/>
-      <c r="O55" s="97"/>
-      <c r="P55" s="98"/>
-      <c r="Q55" s="96"/>
-      <c r="R55" s="98"/>
-      <c r="S55" s="96"/>
-      <c r="T55" s="97"/>
-      <c r="U55" s="97"/>
-      <c r="V55" s="97"/>
-      <c r="W55" s="97"/>
-      <c r="X55" s="97"/>
-      <c r="Y55" s="97"/>
-      <c r="Z55" s="97"/>
-      <c r="AA55" s="97"/>
-      <c r="AB55" s="98"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="98"/>
+      <c r="K55" s="98"/>
+      <c r="L55" s="99"/>
+      <c r="M55" s="97"/>
+      <c r="N55" s="98"/>
+      <c r="O55" s="98"/>
+      <c r="P55" s="99"/>
+      <c r="Q55" s="97"/>
+      <c r="R55" s="99"/>
+      <c r="S55" s="97"/>
+      <c r="T55" s="98"/>
+      <c r="U55" s="98"/>
+      <c r="V55" s="98"/>
+      <c r="W55" s="98"/>
+      <c r="X55" s="98"/>
+      <c r="Y55" s="98"/>
+      <c r="Z55" s="98"/>
+      <c r="AA55" s="98"/>
+      <c r="AB55" s="99"/>
     </row>
     <row r="56" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C56" s="34">
         <v>8</v>
       </c>
-      <c r="D56" s="96"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="97"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="96"/>
-      <c r="N56" s="97"/>
-      <c r="O56" s="97"/>
-      <c r="P56" s="98"/>
-      <c r="Q56" s="96"/>
-      <c r="R56" s="98"/>
-      <c r="S56" s="96"/>
-      <c r="T56" s="97"/>
-      <c r="U56" s="97"/>
-      <c r="V56" s="97"/>
-      <c r="W56" s="97"/>
-      <c r="X56" s="97"/>
-      <c r="Y56" s="97"/>
-      <c r="Z56" s="97"/>
-      <c r="AA56" s="97"/>
-      <c r="AB56" s="98"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="98"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="98"/>
+      <c r="L56" s="99"/>
+      <c r="M56" s="97"/>
+      <c r="N56" s="98"/>
+      <c r="O56" s="98"/>
+      <c r="P56" s="99"/>
+      <c r="Q56" s="97"/>
+      <c r="R56" s="99"/>
+      <c r="S56" s="97"/>
+      <c r="T56" s="98"/>
+      <c r="U56" s="98"/>
+      <c r="V56" s="98"/>
+      <c r="W56" s="98"/>
+      <c r="X56" s="98"/>
+      <c r="Y56" s="98"/>
+      <c r="Z56" s="98"/>
+      <c r="AA56" s="98"/>
+      <c r="AB56" s="99"/>
     </row>
     <row r="57" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C57" s="34">
         <v>9</v>
       </c>
-      <c r="D57" s="96"/>
-      <c r="E57" s="97"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="97"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="97"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="97"/>
-      <c r="L57" s="98"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="97"/>
-      <c r="O57" s="97"/>
-      <c r="P57" s="98"/>
-      <c r="Q57" s="96"/>
-      <c r="R57" s="98"/>
-      <c r="S57" s="96"/>
-      <c r="T57" s="97"/>
-      <c r="U57" s="97"/>
-      <c r="V57" s="97"/>
-      <c r="W57" s="97"/>
-      <c r="X57" s="97"/>
-      <c r="Y57" s="97"/>
-      <c r="Z57" s="97"/>
-      <c r="AA57" s="97"/>
-      <c r="AB57" s="98"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="98"/>
+      <c r="H57" s="98"/>
+      <c r="I57" s="98"/>
+      <c r="J57" s="98"/>
+      <c r="K57" s="98"/>
+      <c r="L57" s="99"/>
+      <c r="M57" s="97"/>
+      <c r="N57" s="98"/>
+      <c r="O57" s="98"/>
+      <c r="P57" s="99"/>
+      <c r="Q57" s="97"/>
+      <c r="R57" s="99"/>
+      <c r="S57" s="97"/>
+      <c r="T57" s="98"/>
+      <c r="U57" s="98"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
+      <c r="X57" s="98"/>
+      <c r="Y57" s="98"/>
+      <c r="Z57" s="98"/>
+      <c r="AA57" s="98"/>
+      <c r="AB57" s="99"/>
     </row>
     <row r="58" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C58" s="34">
         <v>10</v>
       </c>
-      <c r="D58" s="96"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="98"/>
-      <c r="M58" s="96"/>
-      <c r="N58" s="97"/>
-      <c r="O58" s="97"/>
-      <c r="P58" s="98"/>
-      <c r="Q58" s="96"/>
-      <c r="R58" s="98"/>
-      <c r="S58" s="96"/>
-      <c r="T58" s="97"/>
-      <c r="U58" s="97"/>
-      <c r="V58" s="97"/>
-      <c r="W58" s="97"/>
-      <c r="X58" s="97"/>
-      <c r="Y58" s="97"/>
-      <c r="Z58" s="97"/>
-      <c r="AA58" s="97"/>
-      <c r="AB58" s="98"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="98"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="98"/>
+      <c r="I58" s="98"/>
+      <c r="J58" s="98"/>
+      <c r="K58" s="98"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="97"/>
+      <c r="N58" s="98"/>
+      <c r="O58" s="98"/>
+      <c r="P58" s="99"/>
+      <c r="Q58" s="97"/>
+      <c r="R58" s="99"/>
+      <c r="S58" s="97"/>
+      <c r="T58" s="98"/>
+      <c r="U58" s="98"/>
+      <c r="V58" s="98"/>
+      <c r="W58" s="98"/>
+      <c r="X58" s="98"/>
+      <c r="Y58" s="98"/>
+      <c r="Z58" s="98"/>
+      <c r="AA58" s="98"/>
+      <c r="AB58" s="99"/>
     </row>
     <row r="59" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C59" s="34"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="97"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="97"/>
-      <c r="J59" s="97"/>
-      <c r="K59" s="97"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="96"/>
-      <c r="N59" s="97"/>
-      <c r="O59" s="97"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="96"/>
-      <c r="R59" s="98"/>
-      <c r="S59" s="96"/>
-      <c r="T59" s="97"/>
-      <c r="U59" s="97"/>
-      <c r="V59" s="97"/>
-      <c r="W59" s="97"/>
-      <c r="X59" s="97"/>
-      <c r="Y59" s="97"/>
-      <c r="Z59" s="97"/>
-      <c r="AA59" s="97"/>
-      <c r="AB59" s="98"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="98"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="98"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="98"/>
+      <c r="L59" s="99"/>
+      <c r="M59" s="97"/>
+      <c r="N59" s="98"/>
+      <c r="O59" s="98"/>
+      <c r="P59" s="99"/>
+      <c r="Q59" s="97"/>
+      <c r="R59" s="99"/>
+      <c r="S59" s="97"/>
+      <c r="T59" s="98"/>
+      <c r="U59" s="98"/>
+      <c r="V59" s="98"/>
+      <c r="W59" s="98"/>
+      <c r="X59" s="98"/>
+      <c r="Y59" s="98"/>
+      <c r="Z59" s="98"/>
+      <c r="AA59" s="98"/>
+      <c r="AB59" s="99"/>
     </row>
     <row r="60" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="3"/>
@@ -18970,396 +19197,450 @@
     </row>
     <row r="62" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C62" s="34"/>
-      <c r="D62" s="101" t="s">
+      <c r="D62" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="102"/>
-      <c r="I62" s="102"/>
-      <c r="J62" s="102"/>
-      <c r="K62" s="102"/>
-      <c r="L62" s="103"/>
-      <c r="M62" s="101" t="s">
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="101"/>
+      <c r="I62" s="101"/>
+      <c r="J62" s="101"/>
+      <c r="K62" s="101"/>
+      <c r="L62" s="102"/>
+      <c r="M62" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="N62" s="102"/>
-      <c r="O62" s="102"/>
-      <c r="P62" s="103"/>
-      <c r="Q62" s="101" t="s">
+      <c r="N62" s="101"/>
+      <c r="O62" s="101"/>
+      <c r="P62" s="102"/>
+      <c r="Q62" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="R62" s="103"/>
-      <c r="S62" s="101" t="s">
+      <c r="R62" s="102"/>
+      <c r="S62" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="T62" s="102"/>
-      <c r="U62" s="102"/>
-      <c r="V62" s="102"/>
-      <c r="W62" s="102"/>
-      <c r="X62" s="102"/>
-      <c r="Y62" s="102"/>
-      <c r="Z62" s="102"/>
-      <c r="AA62" s="102"/>
-      <c r="AB62" s="103"/>
+      <c r="T62" s="101"/>
+      <c r="U62" s="101"/>
+      <c r="V62" s="101"/>
+      <c r="W62" s="101"/>
+      <c r="X62" s="101"/>
+      <c r="Y62" s="101"/>
+      <c r="Z62" s="101"/>
+      <c r="AA62" s="101"/>
+      <c r="AB62" s="102"/>
     </row>
     <row r="63" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C63" s="34">
         <v>1</v>
       </c>
-      <c r="D63" s="96"/>
-      <c r="E63" s="97"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="97"/>
-      <c r="J63" s="97"/>
-      <c r="K63" s="97"/>
-      <c r="L63" s="98"/>
-      <c r="M63" s="96"/>
-      <c r="N63" s="97"/>
-      <c r="O63" s="97"/>
-      <c r="P63" s="98"/>
-      <c r="Q63" s="96"/>
-      <c r="R63" s="98"/>
-      <c r="S63" s="96"/>
-      <c r="T63" s="97"/>
-      <c r="U63" s="97"/>
-      <c r="V63" s="97"/>
-      <c r="W63" s="97"/>
-      <c r="X63" s="97"/>
-      <c r="Y63" s="97"/>
-      <c r="Z63" s="97"/>
-      <c r="AA63" s="97"/>
-      <c r="AB63" s="98"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="98"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="98"/>
+      <c r="K63" s="98"/>
+      <c r="L63" s="99"/>
+      <c r="M63" s="97"/>
+      <c r="N63" s="98"/>
+      <c r="O63" s="98"/>
+      <c r="P63" s="99"/>
+      <c r="Q63" s="97"/>
+      <c r="R63" s="99"/>
+      <c r="S63" s="97"/>
+      <c r="T63" s="98"/>
+      <c r="U63" s="98"/>
+      <c r="V63" s="98"/>
+      <c r="W63" s="98"/>
+      <c r="X63" s="98"/>
+      <c r="Y63" s="98"/>
+      <c r="Z63" s="98"/>
+      <c r="AA63" s="98"/>
+      <c r="AB63" s="99"/>
     </row>
     <row r="64" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C64" s="34">
         <v>2</v>
       </c>
-      <c r="D64" s="96"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="97"/>
-      <c r="G64" s="97"/>
-      <c r="H64" s="97"/>
-      <c r="I64" s="97"/>
-      <c r="J64" s="97"/>
-      <c r="K64" s="97"/>
-      <c r="L64" s="98"/>
-      <c r="M64" s="96"/>
-      <c r="N64" s="97"/>
-      <c r="O64" s="97"/>
-      <c r="P64" s="98"/>
-      <c r="Q64" s="96"/>
-      <c r="R64" s="98"/>
-      <c r="S64" s="96"/>
-      <c r="T64" s="97"/>
-      <c r="U64" s="97"/>
-      <c r="V64" s="97"/>
-      <c r="W64" s="97"/>
-      <c r="X64" s="97"/>
-      <c r="Y64" s="97"/>
-      <c r="Z64" s="97"/>
-      <c r="AA64" s="97"/>
-      <c r="AB64" s="98"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="98"/>
+      <c r="I64" s="98"/>
+      <c r="J64" s="98"/>
+      <c r="K64" s="98"/>
+      <c r="L64" s="99"/>
+      <c r="M64" s="97"/>
+      <c r="N64" s="98"/>
+      <c r="O64" s="98"/>
+      <c r="P64" s="99"/>
+      <c r="Q64" s="97"/>
+      <c r="R64" s="99"/>
+      <c r="S64" s="97"/>
+      <c r="T64" s="98"/>
+      <c r="U64" s="98"/>
+      <c r="V64" s="98"/>
+      <c r="W64" s="98"/>
+      <c r="X64" s="98"/>
+      <c r="Y64" s="98"/>
+      <c r="Z64" s="98"/>
+      <c r="AA64" s="98"/>
+      <c r="AB64" s="99"/>
     </row>
     <row r="65" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C65" s="34">
         <v>3</v>
       </c>
-      <c r="D65" s="96"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97"/>
-      <c r="G65" s="97"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="97"/>
-      <c r="J65" s="97"/>
-      <c r="K65" s="97"/>
-      <c r="L65" s="98"/>
-      <c r="M65" s="96"/>
-      <c r="N65" s="97"/>
-      <c r="O65" s="97"/>
-      <c r="P65" s="98"/>
-      <c r="Q65" s="96"/>
-      <c r="R65" s="98"/>
-      <c r="S65" s="96"/>
-      <c r="T65" s="97"/>
-      <c r="U65" s="97"/>
-      <c r="V65" s="97"/>
-      <c r="W65" s="97"/>
-      <c r="X65" s="97"/>
-      <c r="Y65" s="97"/>
-      <c r="Z65" s="97"/>
-      <c r="AA65" s="97"/>
-      <c r="AB65" s="98"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="98"/>
+      <c r="G65" s="98"/>
+      <c r="H65" s="98"/>
+      <c r="I65" s="98"/>
+      <c r="J65" s="98"/>
+      <c r="K65" s="98"/>
+      <c r="L65" s="99"/>
+      <c r="M65" s="97"/>
+      <c r="N65" s="98"/>
+      <c r="O65" s="98"/>
+      <c r="P65" s="99"/>
+      <c r="Q65" s="97"/>
+      <c r="R65" s="99"/>
+      <c r="S65" s="97"/>
+      <c r="T65" s="98"/>
+      <c r="U65" s="98"/>
+      <c r="V65" s="98"/>
+      <c r="W65" s="98"/>
+      <c r="X65" s="98"/>
+      <c r="Y65" s="98"/>
+      <c r="Z65" s="98"/>
+      <c r="AA65" s="98"/>
+      <c r="AB65" s="99"/>
     </row>
     <row r="66" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C66" s="34">
         <v>4</v>
       </c>
-      <c r="D66" s="96"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="97"/>
-      <c r="K66" s="97"/>
-      <c r="L66" s="98"/>
-      <c r="M66" s="96"/>
-      <c r="N66" s="97"/>
-      <c r="O66" s="97"/>
-      <c r="P66" s="98"/>
-      <c r="Q66" s="96"/>
-      <c r="R66" s="98"/>
-      <c r="S66" s="96"/>
-      <c r="T66" s="97"/>
-      <c r="U66" s="97"/>
-      <c r="V66" s="97"/>
-      <c r="W66" s="97"/>
-      <c r="X66" s="97"/>
-      <c r="Y66" s="97"/>
-      <c r="Z66" s="97"/>
-      <c r="AA66" s="97"/>
-      <c r="AB66" s="98"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="98"/>
+      <c r="I66" s="98"/>
+      <c r="J66" s="98"/>
+      <c r="K66" s="98"/>
+      <c r="L66" s="99"/>
+      <c r="M66" s="97"/>
+      <c r="N66" s="98"/>
+      <c r="O66" s="98"/>
+      <c r="P66" s="99"/>
+      <c r="Q66" s="97"/>
+      <c r="R66" s="99"/>
+      <c r="S66" s="97"/>
+      <c r="T66" s="98"/>
+      <c r="U66" s="98"/>
+      <c r="V66" s="98"/>
+      <c r="W66" s="98"/>
+      <c r="X66" s="98"/>
+      <c r="Y66" s="98"/>
+      <c r="Z66" s="98"/>
+      <c r="AA66" s="98"/>
+      <c r="AB66" s="99"/>
     </row>
     <row r="67" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C67" s="34">
         <v>5</v>
       </c>
-      <c r="D67" s="96"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="97"/>
-      <c r="J67" s="97"/>
-      <c r="K67" s="97"/>
-      <c r="L67" s="98"/>
-      <c r="M67" s="96"/>
-      <c r="N67" s="97"/>
-      <c r="O67" s="97"/>
-      <c r="P67" s="98"/>
-      <c r="Q67" s="96"/>
-      <c r="R67" s="98"/>
-      <c r="S67" s="96"/>
-      <c r="T67" s="97"/>
-      <c r="U67" s="97"/>
-      <c r="V67" s="97"/>
-      <c r="W67" s="97"/>
-      <c r="X67" s="97"/>
-      <c r="Y67" s="97"/>
-      <c r="Z67" s="97"/>
-      <c r="AA67" s="97"/>
-      <c r="AB67" s="98"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="98"/>
+      <c r="I67" s="98"/>
+      <c r="J67" s="98"/>
+      <c r="K67" s="98"/>
+      <c r="L67" s="99"/>
+      <c r="M67" s="97"/>
+      <c r="N67" s="98"/>
+      <c r="O67" s="98"/>
+      <c r="P67" s="99"/>
+      <c r="Q67" s="97"/>
+      <c r="R67" s="99"/>
+      <c r="S67" s="97"/>
+      <c r="T67" s="98"/>
+      <c r="U67" s="98"/>
+      <c r="V67" s="98"/>
+      <c r="W67" s="98"/>
+      <c r="X67" s="98"/>
+      <c r="Y67" s="98"/>
+      <c r="Z67" s="98"/>
+      <c r="AA67" s="98"/>
+      <c r="AB67" s="99"/>
     </row>
     <row r="68" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C68" s="34">
         <v>6</v>
       </c>
-      <c r="D68" s="96"/>
-      <c r="E68" s="97"/>
-      <c r="F68" s="97"/>
-      <c r="G68" s="97"/>
-      <c r="H68" s="97"/>
-      <c r="I68" s="97"/>
-      <c r="J68" s="97"/>
-      <c r="K68" s="97"/>
-      <c r="L68" s="98"/>
-      <c r="M68" s="96"/>
-      <c r="N68" s="97"/>
-      <c r="O68" s="97"/>
-      <c r="P68" s="98"/>
-      <c r="Q68" s="96"/>
-      <c r="R68" s="98"/>
-      <c r="S68" s="96"/>
-      <c r="T68" s="97"/>
-      <c r="U68" s="97"/>
-      <c r="V68" s="97"/>
-      <c r="W68" s="97"/>
-      <c r="X68" s="97"/>
-      <c r="Y68" s="97"/>
-      <c r="Z68" s="97"/>
-      <c r="AA68" s="97"/>
-      <c r="AB68" s="98"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="98"/>
+      <c r="F68" s="98"/>
+      <c r="G68" s="98"/>
+      <c r="H68" s="98"/>
+      <c r="I68" s="98"/>
+      <c r="J68" s="98"/>
+      <c r="K68" s="98"/>
+      <c r="L68" s="99"/>
+      <c r="M68" s="97"/>
+      <c r="N68" s="98"/>
+      <c r="O68" s="98"/>
+      <c r="P68" s="99"/>
+      <c r="Q68" s="97"/>
+      <c r="R68" s="99"/>
+      <c r="S68" s="97"/>
+      <c r="T68" s="98"/>
+      <c r="U68" s="98"/>
+      <c r="V68" s="98"/>
+      <c r="W68" s="98"/>
+      <c r="X68" s="98"/>
+      <c r="Y68" s="98"/>
+      <c r="Z68" s="98"/>
+      <c r="AA68" s="98"/>
+      <c r="AB68" s="99"/>
     </row>
     <row r="69" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C69" s="34">
         <v>7</v>
       </c>
-      <c r="D69" s="96"/>
-      <c r="E69" s="97"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="97"/>
-      <c r="H69" s="97"/>
-      <c r="I69" s="97"/>
-      <c r="J69" s="97"/>
-      <c r="K69" s="97"/>
-      <c r="L69" s="98"/>
-      <c r="M69" s="96"/>
-      <c r="N69" s="97"/>
-      <c r="O69" s="97"/>
-      <c r="P69" s="98"/>
-      <c r="Q69" s="96"/>
-      <c r="R69" s="98"/>
-      <c r="S69" s="96"/>
-      <c r="T69" s="97"/>
-      <c r="U69" s="97"/>
-      <c r="V69" s="97"/>
-      <c r="W69" s="97"/>
-      <c r="X69" s="97"/>
-      <c r="Y69" s="97"/>
-      <c r="Z69" s="97"/>
-      <c r="AA69" s="97"/>
-      <c r="AB69" s="98"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="98"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="98"/>
+      <c r="I69" s="98"/>
+      <c r="J69" s="98"/>
+      <c r="K69" s="98"/>
+      <c r="L69" s="99"/>
+      <c r="M69" s="97"/>
+      <c r="N69" s="98"/>
+      <c r="O69" s="98"/>
+      <c r="P69" s="99"/>
+      <c r="Q69" s="97"/>
+      <c r="R69" s="99"/>
+      <c r="S69" s="97"/>
+      <c r="T69" s="98"/>
+      <c r="U69" s="98"/>
+      <c r="V69" s="98"/>
+      <c r="W69" s="98"/>
+      <c r="X69" s="98"/>
+      <c r="Y69" s="98"/>
+      <c r="Z69" s="98"/>
+      <c r="AA69" s="98"/>
+      <c r="AB69" s="99"/>
     </row>
     <row r="70" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C70" s="34">
         <v>8</v>
       </c>
-      <c r="D70" s="96"/>
-      <c r="E70" s="97"/>
-      <c r="F70" s="97"/>
-      <c r="G70" s="97"/>
-      <c r="H70" s="97"/>
-      <c r="I70" s="97"/>
-      <c r="J70" s="97"/>
-      <c r="K70" s="97"/>
-      <c r="L70" s="98"/>
-      <c r="M70" s="96"/>
-      <c r="N70" s="97"/>
-      <c r="O70" s="97"/>
-      <c r="P70" s="98"/>
-      <c r="Q70" s="96"/>
-      <c r="R70" s="98"/>
-      <c r="S70" s="96"/>
-      <c r="T70" s="97"/>
-      <c r="U70" s="97"/>
-      <c r="V70" s="97"/>
-      <c r="W70" s="97"/>
-      <c r="X70" s="97"/>
-      <c r="Y70" s="97"/>
-      <c r="Z70" s="97"/>
-      <c r="AA70" s="97"/>
-      <c r="AB70" s="98"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="98"/>
+      <c r="G70" s="98"/>
+      <c r="H70" s="98"/>
+      <c r="I70" s="98"/>
+      <c r="J70" s="98"/>
+      <c r="K70" s="98"/>
+      <c r="L70" s="99"/>
+      <c r="M70" s="97"/>
+      <c r="N70" s="98"/>
+      <c r="O70" s="98"/>
+      <c r="P70" s="99"/>
+      <c r="Q70" s="97"/>
+      <c r="R70" s="99"/>
+      <c r="S70" s="97"/>
+      <c r="T70" s="98"/>
+      <c r="U70" s="98"/>
+      <c r="V70" s="98"/>
+      <c r="W70" s="98"/>
+      <c r="X70" s="98"/>
+      <c r="Y70" s="98"/>
+      <c r="Z70" s="98"/>
+      <c r="AA70" s="98"/>
+      <c r="AB70" s="99"/>
     </row>
     <row r="71" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C71" s="34">
         <v>9</v>
       </c>
-      <c r="D71" s="96"/>
-      <c r="E71" s="97"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="97"/>
-      <c r="H71" s="97"/>
-      <c r="I71" s="97"/>
-      <c r="J71" s="97"/>
-      <c r="K71" s="97"/>
-      <c r="L71" s="98"/>
-      <c r="M71" s="96"/>
-      <c r="N71" s="97"/>
-      <c r="O71" s="97"/>
-      <c r="P71" s="98"/>
-      <c r="Q71" s="96"/>
-      <c r="R71" s="98"/>
-      <c r="S71" s="96"/>
-      <c r="T71" s="97"/>
-      <c r="U71" s="97"/>
-      <c r="V71" s="97"/>
-      <c r="W71" s="97"/>
-      <c r="X71" s="97"/>
-      <c r="Y71" s="97"/>
-      <c r="Z71" s="97"/>
-      <c r="AA71" s="97"/>
-      <c r="AB71" s="98"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="98"/>
+      <c r="H71" s="98"/>
+      <c r="I71" s="98"/>
+      <c r="J71" s="98"/>
+      <c r="K71" s="98"/>
+      <c r="L71" s="99"/>
+      <c r="M71" s="97"/>
+      <c r="N71" s="98"/>
+      <c r="O71" s="98"/>
+      <c r="P71" s="99"/>
+      <c r="Q71" s="97"/>
+      <c r="R71" s="99"/>
+      <c r="S71" s="97"/>
+      <c r="T71" s="98"/>
+      <c r="U71" s="98"/>
+      <c r="V71" s="98"/>
+      <c r="W71" s="98"/>
+      <c r="X71" s="98"/>
+      <c r="Y71" s="98"/>
+      <c r="Z71" s="98"/>
+      <c r="AA71" s="98"/>
+      <c r="AB71" s="99"/>
     </row>
     <row r="72" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C72" s="34">
         <v>10</v>
       </c>
-      <c r="D72" s="96"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="97"/>
-      <c r="G72" s="97"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="97"/>
-      <c r="J72" s="97"/>
-      <c r="K72" s="97"/>
-      <c r="L72" s="98"/>
-      <c r="M72" s="96"/>
-      <c r="N72" s="97"/>
-      <c r="O72" s="97"/>
-      <c r="P72" s="98"/>
-      <c r="Q72" s="96"/>
-      <c r="R72" s="98"/>
-      <c r="S72" s="96"/>
-      <c r="T72" s="97"/>
-      <c r="U72" s="97"/>
-      <c r="V72" s="97"/>
-      <c r="W72" s="97"/>
-      <c r="X72" s="97"/>
-      <c r="Y72" s="97"/>
-      <c r="Z72" s="97"/>
-      <c r="AA72" s="97"/>
-      <c r="AB72" s="98"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="98"/>
+      <c r="G72" s="98"/>
+      <c r="H72" s="98"/>
+      <c r="I72" s="98"/>
+      <c r="J72" s="98"/>
+      <c r="K72" s="98"/>
+      <c r="L72" s="99"/>
+      <c r="M72" s="97"/>
+      <c r="N72" s="98"/>
+      <c r="O72" s="98"/>
+      <c r="P72" s="99"/>
+      <c r="Q72" s="97"/>
+      <c r="R72" s="99"/>
+      <c r="S72" s="97"/>
+      <c r="T72" s="98"/>
+      <c r="U72" s="98"/>
+      <c r="V72" s="98"/>
+      <c r="W72" s="98"/>
+      <c r="X72" s="98"/>
+      <c r="Y72" s="98"/>
+      <c r="Z72" s="98"/>
+      <c r="AA72" s="98"/>
+      <c r="AB72" s="99"/>
     </row>
     <row r="73" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C73" s="34"/>
-      <c r="D73" s="96"/>
-      <c r="E73" s="97"/>
-      <c r="F73" s="97"/>
-      <c r="G73" s="97"/>
-      <c r="H73" s="97"/>
-      <c r="I73" s="97"/>
-      <c r="J73" s="97"/>
-      <c r="K73" s="97"/>
-      <c r="L73" s="98"/>
-      <c r="M73" s="96"/>
-      <c r="N73" s="97"/>
-      <c r="O73" s="97"/>
-      <c r="P73" s="98"/>
-      <c r="Q73" s="96"/>
-      <c r="R73" s="98"/>
-      <c r="S73" s="96"/>
-      <c r="T73" s="97"/>
-      <c r="U73" s="97"/>
-      <c r="V73" s="97"/>
-      <c r="W73" s="97"/>
-      <c r="X73" s="97"/>
-      <c r="Y73" s="97"/>
-      <c r="Z73" s="97"/>
-      <c r="AA73" s="97"/>
-      <c r="AB73" s="98"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="98"/>
+      <c r="H73" s="98"/>
+      <c r="I73" s="98"/>
+      <c r="J73" s="98"/>
+      <c r="K73" s="98"/>
+      <c r="L73" s="99"/>
+      <c r="M73" s="97"/>
+      <c r="N73" s="98"/>
+      <c r="O73" s="98"/>
+      <c r="P73" s="99"/>
+      <c r="Q73" s="97"/>
+      <c r="R73" s="99"/>
+      <c r="S73" s="97"/>
+      <c r="T73" s="98"/>
+      <c r="U73" s="98"/>
+      <c r="V73" s="98"/>
+      <c r="W73" s="98"/>
+      <c r="X73" s="98"/>
+      <c r="Y73" s="98"/>
+      <c r="Z73" s="98"/>
+      <c r="AA73" s="98"/>
+      <c r="AB73" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="D59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:AB59"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:AB56"/>
-    <mergeCell ref="D57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:AB57"/>
-    <mergeCell ref="D56:L56"/>
-    <mergeCell ref="D58:L58"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:AB58"/>
-    <mergeCell ref="S53:AB53"/>
-    <mergeCell ref="D52:L52"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:AB54"/>
-    <mergeCell ref="D55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:AB55"/>
-    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="D43:L43"/>
+    <mergeCell ref="M43:R43"/>
+    <mergeCell ref="D44:L44"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="D40:L40"/>
+    <mergeCell ref="M40:R40"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="M41:R41"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="M42:R42"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="M38:R38"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="M39:R39"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="M35:R35"/>
+    <mergeCell ref="D36:L36"/>
+    <mergeCell ref="M36:R36"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="D30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="D62:L62"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:AB62"/>
+    <mergeCell ref="S63:AB63"/>
+    <mergeCell ref="S64:AB64"/>
+    <mergeCell ref="S65:AB65"/>
+    <mergeCell ref="S66:AB66"/>
+    <mergeCell ref="S67:AB67"/>
+    <mergeCell ref="S68:AB68"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="D68:L68"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="S69:AB69"/>
+    <mergeCell ref="S70:AB70"/>
+    <mergeCell ref="S71:AB71"/>
+    <mergeCell ref="S72:AB72"/>
+    <mergeCell ref="S73:AB73"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="D69:L69"/>
+    <mergeCell ref="D70:L70"/>
+    <mergeCell ref="D71:L71"/>
+    <mergeCell ref="D63:L63"/>
+    <mergeCell ref="D64:L64"/>
+    <mergeCell ref="D65:L65"/>
+    <mergeCell ref="D66:L66"/>
+    <mergeCell ref="D67:L67"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="M67:P67"/>
     <mergeCell ref="D72:L72"/>
     <mergeCell ref="D73:L73"/>
     <mergeCell ref="M48:P48"/>
@@ -19384,86 +19665,32 @@
     <mergeCell ref="D53:L53"/>
     <mergeCell ref="M53:P53"/>
     <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="D69:L69"/>
-    <mergeCell ref="D70:L70"/>
-    <mergeCell ref="D71:L71"/>
-    <mergeCell ref="D63:L63"/>
-    <mergeCell ref="D64:L64"/>
-    <mergeCell ref="D65:L65"/>
-    <mergeCell ref="D66:L66"/>
-    <mergeCell ref="D67:L67"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="M72:P72"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="S69:AB69"/>
-    <mergeCell ref="S70:AB70"/>
-    <mergeCell ref="S71:AB71"/>
-    <mergeCell ref="S72:AB72"/>
-    <mergeCell ref="S73:AB73"/>
-    <mergeCell ref="M69:P69"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="M71:P71"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="D62:L62"/>
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="S62:AB62"/>
-    <mergeCell ref="S63:AB63"/>
-    <mergeCell ref="S64:AB64"/>
-    <mergeCell ref="S65:AB65"/>
-    <mergeCell ref="S66:AB66"/>
-    <mergeCell ref="S67:AB67"/>
-    <mergeCell ref="S68:AB68"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="D68:L68"/>
-    <mergeCell ref="M68:P68"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="D28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="D29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="D30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="M37:R37"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="M38:R38"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="M39:R39"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="M35:R35"/>
-    <mergeCell ref="D36:L36"/>
-    <mergeCell ref="M36:R36"/>
-    <mergeCell ref="D43:L43"/>
-    <mergeCell ref="M43:R43"/>
-    <mergeCell ref="D44:L44"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="D40:L40"/>
-    <mergeCell ref="M40:R40"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="M41:R41"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="M42:R42"/>
+    <mergeCell ref="S53:AB53"/>
+    <mergeCell ref="D52:L52"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:AB54"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:AB55"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="D59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:AB59"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:AB56"/>
+    <mergeCell ref="D57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:AB57"/>
+    <mergeCell ref="D56:L56"/>
+    <mergeCell ref="D58:L58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:AB58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19528,9 +19755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BEE79C-C348-4CFD-BD36-186B70D89DA4}">
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -19561,7 +19786,7 @@
         <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -19570,13 +19795,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="105" t="s">
-        <v>136</v>
+      <c r="A8" s="42" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="105" t="s">
-        <v>138</v>
+      <c r="A9" s="42" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -19593,9 +19818,7 @@
   </sheetPr>
   <dimension ref="B2:AV80"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AV40" sqref="AV40"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -19615,13 +19838,13 @@
       </c>
     </row>
     <row r="6" spans="2:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -19638,11 +19861,11 @@
       </c>
     </row>
     <row r="7" spans="2:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -19680,22 +19903,22 @@
       <c r="D9" s="9"/>
       <c r="E9" s="30"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="54" t="s">
+      <c r="N9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="55"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="57"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="58"/>
       <c r="AV9" s="21"/>
     </row>
     <row r="10" spans="2:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19703,18 +19926,18 @@
       <c r="D10" s="9"/>
       <c r="E10" s="28"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="28"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="61"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="62"/>
       <c r="AV10" s="21"/>
     </row>
     <row r="11" spans="2:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19748,22 +19971,22 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="46" t="s">
+      <c r="N12" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="92"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="73"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="54" t="s">
+      <c r="U12" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="V12" s="55"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="57"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="58"/>
       <c r="AV12" s="21"/>
     </row>
     <row r="13" spans="2:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19778,18 +20001,18 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="93"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="74"/>
       <c r="S13" s="6"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="61"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="62"/>
       <c r="AV13" s="21"/>
     </row>
     <row r="14" spans="2:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19832,22 +20055,22 @@
       <c r="M15" s="30"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="62" t="s">
+      <c r="U15" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="94"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="75"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
-      <c r="AB15" s="54" t="s">
+      <c r="AB15" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="57"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="58"/>
       <c r="AV15" s="21"/>
     </row>
     <row r="16" spans="2:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19869,18 +20092,18 @@
       <c r="R16" s="7"/>
       <c r="S16" s="8"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="95"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="76"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="61"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="62"/>
       <c r="AV16" s="21"/>
     </row>
     <row r="17" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19922,22 +20145,22 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="46" t="s">
+      <c r="N18" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="47"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="49"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="50"/>
       <c r="S18" s="14"/>
       <c r="AA18" s="4"/>
-      <c r="AB18" s="54" t="s">
+      <c r="AB18" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="57"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="58"/>
       <c r="AV18" s="21"/>
     </row>
     <row r="19" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19952,16 +20175,16 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="32"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="53"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="60"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="61"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="54"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="62"/>
       <c r="AV19" s="21"/>
     </row>
     <row r="20" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19980,22 +20203,22 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="70" t="s">
+      <c r="N21" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="80"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="79"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="54" t="s">
+      <c r="U21" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="V21" s="55"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="57"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="58"/>
       <c r="AV21" s="21"/>
     </row>
     <row r="22" spans="3:48" x14ac:dyDescent="0.45">
@@ -20010,18 +20233,18 @@
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="32"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="81"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="82"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="61"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="62"/>
       <c r="AV22" s="21"/>
     </row>
     <row r="23" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20029,13 +20252,13 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="49"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
       <c r="L23" s="4"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -20051,32 +20274,32 @@
       <c r="D24" s="9"/>
       <c r="E24" s="11"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="54" t="s">
+      <c r="U24" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="V24" s="55"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="57"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="58"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="11"/>
-      <c r="AB24" s="54" t="s">
+      <c r="AB24" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="78"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="63"/>
       <c r="AV24" s="21"/>
     </row>
     <row r="25" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20094,17 +20317,17 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="61"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="62"/>
       <c r="AA25" s="7"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="79"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="64"/>
       <c r="AV25" s="21"/>
     </row>
     <row r="26" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20149,22 +20372,22 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="82" t="s">
+      <c r="U27" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="V27" s="83"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="84"/>
-      <c r="Y27" s="85"/>
+      <c r="V27" s="84"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="86"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="31"/>
-      <c r="AB27" s="54" t="s">
+      <c r="AB27" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="78"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="63"/>
       <c r="AV27" s="21"/>
     </row>
     <row r="28" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20182,16 +20405,16 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="89"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="79"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="90"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="64"/>
       <c r="AV28" s="21"/>
     </row>
     <row r="29" spans="3:48" x14ac:dyDescent="0.45">
@@ -20202,64 +20425,64 @@
     <row r="30" spans="3:48" x14ac:dyDescent="0.45">
       <c r="E30" s="3"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="54" t="s">
+      <c r="U30" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="78"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="63"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="31"/>
-      <c r="AB30" s="82" t="s">
+      <c r="AB30" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="AC30" s="83"/>
-      <c r="AD30" s="83"/>
-      <c r="AE30" s="83"/>
-      <c r="AF30" s="90"/>
+      <c r="AC30" s="84"/>
+      <c r="AD30" s="84"/>
+      <c r="AE30" s="84"/>
+      <c r="AF30" s="91"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="31"/>
-      <c r="AI30" s="70" t="s">
+      <c r="AI30" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="71"/>
-      <c r="AL30" s="71"/>
-      <c r="AM30" s="80"/>
+      <c r="AJ30" s="78"/>
+      <c r="AK30" s="78"/>
+      <c r="AL30" s="78"/>
+      <c r="AM30" s="79"/>
       <c r="AN30" s="4"/>
       <c r="AO30" s="31"/>
-      <c r="AP30" s="54" t="s">
+      <c r="AP30" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AQ30" s="55"/>
-      <c r="AR30" s="55"/>
-      <c r="AS30" s="55"/>
-      <c r="AT30" s="78"/>
+      <c r="AQ30" s="56"/>
+      <c r="AR30" s="56"/>
+      <c r="AS30" s="56"/>
+      <c r="AT30" s="63"/>
       <c r="AV30" s="21"/>
     </row>
     <row r="31" spans="3:48" x14ac:dyDescent="0.45">
       <c r="T31" s="6"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="79"/>
-      <c r="AB31" s="86"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="87"/>
-      <c r="AE31" s="87"/>
-      <c r="AF31" s="91"/>
-      <c r="AI31" s="74"/>
-      <c r="AJ31" s="75"/>
-      <c r="AK31" s="75"/>
-      <c r="AL31" s="75"/>
-      <c r="AM31" s="81"/>
-      <c r="AP31" s="58"/>
-      <c r="AQ31" s="59"/>
-      <c r="AR31" s="59"/>
-      <c r="AS31" s="59"/>
-      <c r="AT31" s="79"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="64"/>
+      <c r="AB31" s="87"/>
+      <c r="AC31" s="88"/>
+      <c r="AD31" s="88"/>
+      <c r="AE31" s="88"/>
+      <c r="AF31" s="92"/>
+      <c r="AI31" s="80"/>
+      <c r="AJ31" s="81"/>
+      <c r="AK31" s="81"/>
+      <c r="AL31" s="81"/>
+      <c r="AM31" s="82"/>
+      <c r="AP31" s="59"/>
+      <c r="AQ31" s="60"/>
+      <c r="AR31" s="60"/>
+      <c r="AS31" s="60"/>
+      <c r="AT31" s="64"/>
       <c r="AV31" s="21"/>
     </row>
     <row r="32" spans="3:48" x14ac:dyDescent="0.45">
@@ -20270,36 +20493,36 @@
       <c r="O33" s="11"/>
       <c r="S33" s="3"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="62" t="s">
+      <c r="U33" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="V33" s="63"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="65"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="68"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="31"/>
-      <c r="AB33" s="62" t="s">
+      <c r="AB33" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AC33" s="63"/>
-      <c r="AD33" s="64"/>
-      <c r="AE33" s="64"/>
-      <c r="AF33" s="65"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="67"/>
+      <c r="AE33" s="67"/>
+      <c r="AF33" s="68"/>
       <c r="AV33" s="21"/>
     </row>
     <row r="34" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T34" s="6"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="69"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="67"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="68"/>
-      <c r="AF34" s="69"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="72"/>
+      <c r="AB34" s="69"/>
+      <c r="AC34" s="70"/>
+      <c r="AD34" s="71"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="72"/>
       <c r="AV34" s="21"/>
     </row>
     <row r="35" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20315,22 +20538,22 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="70" t="s">
+      <c r="U36" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="V36" s="71"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="73"/>
+      <c r="V36" s="78"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="94"/>
       <c r="AV36" s="21"/>
     </row>
     <row r="37" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T37" s="6"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="75"/>
-      <c r="W37" s="76"/>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="77"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="81"/>
+      <c r="W37" s="95"/>
+      <c r="X37" s="95"/>
+      <c r="Y37" s="96"/>
     </row>
     <row r="38" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T38" s="2"/>
@@ -20342,20 +20565,20 @@
     </row>
     <row r="39" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T39" s="4"/>
-      <c r="U39" s="70" t="s">
+      <c r="U39" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="V39" s="71"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="73"/>
+      <c r="V39" s="78"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="94"/>
     </row>
     <row r="40" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="U40" s="74"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="76"/>
-      <c r="X40" s="76"/>
-      <c r="Y40" s="77"/>
+      <c r="U40" s="80"/>
+      <c r="V40" s="81"/>
+      <c r="W40" s="95"/>
+      <c r="X40" s="95"/>
+      <c r="Y40" s="96"/>
     </row>
     <row r="41" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="U41" s="37"/>
@@ -20372,23 +20595,23 @@
       <c r="Y42" s="38"/>
     </row>
     <row r="43" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="73"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="94"/>
       <c r="AV43" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="77"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="96"/>
       <c r="AV44" s="21"/>
     </row>
     <row r="45" spans="3:48" x14ac:dyDescent="0.45">
@@ -20400,22 +20623,22 @@
       <c r="D46" s="9"/>
       <c r="E46" s="30"/>
       <c r="F46" s="31"/>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="47"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="49"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="50"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="54" t="s">
+      <c r="N46" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="O46" s="55"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="57"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="58"/>
       <c r="AV46" s="21"/>
     </row>
     <row r="47" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20423,18 +20646,18 @@
       <c r="D47" s="9"/>
       <c r="E47" s="28"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="53"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="54"/>
       <c r="L47" s="28"/>
       <c r="M47" s="12"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="61"/>
+      <c r="N47" s="59"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="62"/>
       <c r="AV47" s="21"/>
     </row>
     <row r="48" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20452,22 +20675,22 @@
       <c r="K49" s="3"/>
       <c r="L49" s="11"/>
       <c r="M49" s="30"/>
-      <c r="N49" s="62" t="s">
+      <c r="N49" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="63"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="64"/>
-      <c r="R49" s="65"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="67"/>
+      <c r="Q49" s="67"/>
+      <c r="R49" s="68"/>
       <c r="S49" s="4"/>
       <c r="T49" s="14"/>
-      <c r="U49" s="54" t="s">
+      <c r="U49" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="V49" s="55"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="57"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="57"/>
+      <c r="X49" s="57"/>
+      <c r="Y49" s="58"/>
       <c r="AV49" s="21"/>
     </row>
     <row r="50" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20480,16 +20703,16 @@
       <c r="K50" s="3"/>
       <c r="L50" s="11"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="68"/>
-      <c r="Q50" s="68"/>
-      <c r="R50" s="69"/>
-      <c r="U50" s="58"/>
-      <c r="V50" s="59"/>
-      <c r="W50" s="60"/>
-      <c r="X50" s="60"/>
-      <c r="Y50" s="61"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="70"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="72"/>
+      <c r="U50" s="59"/>
+      <c r="V50" s="60"/>
+      <c r="W50" s="61"/>
+      <c r="X50" s="61"/>
+      <c r="Y50" s="62"/>
       <c r="AV50" s="21"/>
     </row>
     <row r="51" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20507,22 +20730,22 @@
       <c r="K52" s="3"/>
       <c r="L52" s="11"/>
       <c r="M52" s="30"/>
-      <c r="N52" s="46" t="s">
+      <c r="N52" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="O52" s="47"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="49"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49"/>
+      <c r="R52" s="50"/>
       <c r="S52" s="4"/>
       <c r="T52" s="14"/>
-      <c r="U52" s="54" t="s">
+      <c r="U52" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="V52" s="55"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="57"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="58"/>
       <c r="AV52" s="21"/>
     </row>
     <row r="53" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20535,16 +20758,16 @@
       <c r="K53" s="3"/>
       <c r="L53" s="11"/>
       <c r="M53" s="12"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="53"/>
-      <c r="U53" s="58"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="61"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="54"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="62"/>
       <c r="AV53" s="21"/>
     </row>
     <row r="54" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20562,22 +20785,22 @@
       <c r="K55" s="3"/>
       <c r="L55" s="11"/>
       <c r="M55" s="30"/>
-      <c r="N55" s="46" t="s">
+      <c r="N55" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="O55" s="47"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="49"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="50"/>
       <c r="S55" s="4"/>
       <c r="T55" s="14"/>
-      <c r="U55" s="54" t="s">
+      <c r="U55" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="V55" s="55"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="57"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="57"/>
+      <c r="X55" s="57"/>
+      <c r="Y55" s="58"/>
       <c r="AV55" s="21"/>
     </row>
     <row r="56" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20590,16 +20813,16 @@
       <c r="K56" s="3"/>
       <c r="L56" s="11"/>
       <c r="M56" s="12"/>
-      <c r="N56" s="50"/>
-      <c r="O56" s="51"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="53"/>
-      <c r="U56" s="58"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="60"/>
-      <c r="X56" s="60"/>
-      <c r="Y56" s="61"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="54"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="60"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="61"/>
+      <c r="Y56" s="62"/>
       <c r="AV56" s="21"/>
     </row>
     <row r="57" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20617,22 +20840,22 @@
       <c r="K58" s="3"/>
       <c r="L58" s="11"/>
       <c r="M58" s="30"/>
-      <c r="N58" s="46" t="s">
+      <c r="N58" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="O58" s="47"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="49"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="50"/>
       <c r="S58" s="4"/>
       <c r="T58" s="14"/>
-      <c r="U58" s="54" t="s">
+      <c r="U58" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="V58" s="55"/>
-      <c r="W58" s="56"/>
-      <c r="X58" s="56"/>
-      <c r="Y58" s="57"/>
+      <c r="V58" s="56"/>
+      <c r="W58" s="57"/>
+      <c r="X58" s="57"/>
+      <c r="Y58" s="58"/>
       <c r="AV58" s="21"/>
     </row>
     <row r="59" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20645,16 +20868,16 @@
       <c r="K59" s="3"/>
       <c r="L59" s="11"/>
       <c r="M59" s="32"/>
-      <c r="N59" s="50"/>
-      <c r="O59" s="51"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="53"/>
-      <c r="U59" s="58"/>
-      <c r="V59" s="59"/>
-      <c r="W59" s="60"/>
-      <c r="X59" s="60"/>
-      <c r="Y59" s="61"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="54"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="60"/>
+      <c r="W59" s="61"/>
+      <c r="X59" s="61"/>
+      <c r="Y59" s="62"/>
       <c r="AV59" s="21"/>
     </row>
     <row r="60" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20666,22 +20889,22 @@
       <c r="D61" s="9"/>
       <c r="E61" s="30"/>
       <c r="F61" s="31"/>
-      <c r="G61" s="46" t="s">
+      <c r="G61" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="H61" s="47"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="49"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="50"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
-      <c r="N61" s="54" t="s">
+      <c r="N61" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="O61" s="55"/>
-      <c r="P61" s="56"/>
-      <c r="Q61" s="56"/>
-      <c r="R61" s="57"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57"/>
+      <c r="R61" s="58"/>
       <c r="AV61" s="21"/>
     </row>
     <row r="62" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20689,18 +20912,18 @@
       <c r="D62" s="9"/>
       <c r="E62" s="28"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="53"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="54"/>
       <c r="L62" s="28"/>
       <c r="M62" s="12"/>
-      <c r="N62" s="58"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="60"/>
-      <c r="Q62" s="60"/>
-      <c r="R62" s="61"/>
+      <c r="N62" s="59"/>
+      <c r="O62" s="60"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="61"/>
+      <c r="R62" s="62"/>
       <c r="AV62" s="21"/>
     </row>
     <row r="63" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20718,22 +20941,22 @@
       <c r="K64" s="3"/>
       <c r="L64" s="11"/>
       <c r="M64" s="30"/>
-      <c r="N64" s="62" t="s">
+      <c r="N64" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="O64" s="63"/>
-      <c r="P64" s="64"/>
-      <c r="Q64" s="64"/>
-      <c r="R64" s="65"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="68"/>
       <c r="S64" s="4"/>
       <c r="T64" s="14"/>
-      <c r="U64" s="54" t="s">
+      <c r="U64" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="V64" s="55"/>
-      <c r="W64" s="56"/>
-      <c r="X64" s="56"/>
-      <c r="Y64" s="57"/>
+      <c r="V64" s="56"/>
+      <c r="W64" s="57"/>
+      <c r="X64" s="57"/>
+      <c r="Y64" s="58"/>
       <c r="AV64" s="21"/>
     </row>
     <row r="65" spans="5:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20746,16 +20969,16 @@
       <c r="K65" s="3"/>
       <c r="L65" s="11"/>
       <c r="M65" s="12"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="68"/>
-      <c r="Q65" s="68"/>
-      <c r="R65" s="69"/>
-      <c r="U65" s="58"/>
-      <c r="V65" s="59"/>
-      <c r="W65" s="60"/>
-      <c r="X65" s="60"/>
-      <c r="Y65" s="61"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="70"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="72"/>
+      <c r="U65" s="59"/>
+      <c r="V65" s="60"/>
+      <c r="W65" s="61"/>
+      <c r="X65" s="61"/>
+      <c r="Y65" s="62"/>
       <c r="AV65" s="21"/>
     </row>
     <row r="66" spans="5:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20773,22 +20996,22 @@
       <c r="K67" s="3"/>
       <c r="L67" s="11"/>
       <c r="M67" s="30"/>
-      <c r="N67" s="46" t="s">
+      <c r="N67" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="O67" s="47"/>
-      <c r="P67" s="48"/>
-      <c r="Q67" s="48"/>
-      <c r="R67" s="49"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="50"/>
       <c r="S67" s="4"/>
       <c r="T67" s="14"/>
-      <c r="U67" s="54" t="s">
+      <c r="U67" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="V67" s="55"/>
-      <c r="W67" s="56"/>
-      <c r="X67" s="56"/>
-      <c r="Y67" s="57"/>
+      <c r="V67" s="56"/>
+      <c r="W67" s="57"/>
+      <c r="X67" s="57"/>
+      <c r="Y67" s="58"/>
       <c r="AV67" s="21"/>
     </row>
     <row r="68" spans="5:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20801,16 +21024,16 @@
       <c r="K68" s="3"/>
       <c r="L68" s="11"/>
       <c r="M68" s="12"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="51"/>
-      <c r="P68" s="52"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="53"/>
-      <c r="U68" s="58"/>
-      <c r="V68" s="59"/>
-      <c r="W68" s="60"/>
-      <c r="X68" s="60"/>
-      <c r="Y68" s="61"/>
+      <c r="N68" s="51"/>
+      <c r="O68" s="52"/>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="53"/>
+      <c r="R68" s="54"/>
+      <c r="U68" s="59"/>
+      <c r="V68" s="60"/>
+      <c r="W68" s="61"/>
+      <c r="X68" s="61"/>
+      <c r="Y68" s="62"/>
       <c r="AV68" s="21"/>
     </row>
     <row r="69" spans="5:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20828,22 +21051,22 @@
       <c r="K70" s="3"/>
       <c r="L70" s="11"/>
       <c r="M70" s="30"/>
-      <c r="N70" s="46" t="s">
+      <c r="N70" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="O70" s="47"/>
-      <c r="P70" s="48"/>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="49"/>
+      <c r="O70" s="48"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="50"/>
       <c r="S70" s="4"/>
       <c r="T70" s="14"/>
-      <c r="U70" s="54" t="s">
+      <c r="U70" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="V70" s="55"/>
-      <c r="W70" s="56"/>
-      <c r="X70" s="56"/>
-      <c r="Y70" s="57"/>
+      <c r="V70" s="56"/>
+      <c r="W70" s="57"/>
+      <c r="X70" s="57"/>
+      <c r="Y70" s="58"/>
       <c r="AV70" s="21"/>
     </row>
     <row r="71" spans="5:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20856,16 +21079,16 @@
       <c r="K71" s="3"/>
       <c r="L71" s="11"/>
       <c r="M71" s="12"/>
-      <c r="N71" s="50"/>
-      <c r="O71" s="51"/>
-      <c r="P71" s="52"/>
-      <c r="Q71" s="52"/>
-      <c r="R71" s="53"/>
-      <c r="U71" s="58"/>
-      <c r="V71" s="59"/>
-      <c r="W71" s="60"/>
-      <c r="X71" s="60"/>
-      <c r="Y71" s="61"/>
+      <c r="N71" s="51"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="53"/>
+      <c r="Q71" s="53"/>
+      <c r="R71" s="54"/>
+      <c r="U71" s="59"/>
+      <c r="V71" s="60"/>
+      <c r="W71" s="61"/>
+      <c r="X71" s="61"/>
+      <c r="Y71" s="62"/>
       <c r="AV71" s="21"/>
     </row>
     <row r="72" spans="5:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20883,22 +21106,22 @@
       <c r="K73" s="3"/>
       <c r="L73" s="11"/>
       <c r="M73" s="30"/>
-      <c r="N73" s="46" t="s">
+      <c r="N73" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="O73" s="47"/>
-      <c r="P73" s="48"/>
-      <c r="Q73" s="48"/>
-      <c r="R73" s="49"/>
+      <c r="O73" s="48"/>
+      <c r="P73" s="49"/>
+      <c r="Q73" s="49"/>
+      <c r="R73" s="50"/>
       <c r="S73" s="4"/>
       <c r="T73" s="14"/>
-      <c r="U73" s="54" t="s">
+      <c r="U73" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="V73" s="55"/>
-      <c r="W73" s="56"/>
-      <c r="X73" s="56"/>
-      <c r="Y73" s="57"/>
+      <c r="V73" s="56"/>
+      <c r="W73" s="57"/>
+      <c r="X73" s="57"/>
+      <c r="Y73" s="58"/>
       <c r="AV73" s="21"/>
     </row>
     <row r="74" spans="5:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20911,16 +21134,16 @@
       <c r="K74" s="3"/>
       <c r="L74" s="11"/>
       <c r="M74" s="32"/>
-      <c r="N74" s="50"/>
-      <c r="O74" s="51"/>
-      <c r="P74" s="52"/>
-      <c r="Q74" s="52"/>
-      <c r="R74" s="53"/>
-      <c r="U74" s="58"/>
-      <c r="V74" s="59"/>
-      <c r="W74" s="60"/>
-      <c r="X74" s="60"/>
-      <c r="Y74" s="61"/>
+      <c r="N74" s="51"/>
+      <c r="O74" s="52"/>
+      <c r="P74" s="53"/>
+      <c r="Q74" s="53"/>
+      <c r="R74" s="54"/>
+      <c r="U74" s="59"/>
+      <c r="V74" s="60"/>
+      <c r="W74" s="61"/>
+      <c r="X74" s="61"/>
+      <c r="Y74" s="62"/>
       <c r="AV74" s="21"/>
     </row>
     <row r="75" spans="5:48" x14ac:dyDescent="0.45">
@@ -20931,21 +21154,21 @@
     <row r="76" spans="5:48" x14ac:dyDescent="0.45">
       <c r="E76" s="4"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="54" t="s">
+      <c r="G76" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H76" s="55"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="57"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="58"/>
       <c r="AV76" s="21"/>
     </row>
     <row r="77" spans="5:48" x14ac:dyDescent="0.45">
-      <c r="G77" s="58"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="61"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="62"/>
       <c r="AV77" s="21"/>
     </row>
     <row r="78" spans="5:48" x14ac:dyDescent="0.45">
@@ -20959,34 +21182,11 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G23:K24"/>
-    <mergeCell ref="U24:Y25"/>
-    <mergeCell ref="AB24:AF25"/>
-    <mergeCell ref="C6:G7"/>
-    <mergeCell ref="G9:K10"/>
-    <mergeCell ref="N9:R10"/>
-    <mergeCell ref="N12:R13"/>
-    <mergeCell ref="U12:Y13"/>
-    <mergeCell ref="U15:Y16"/>
-    <mergeCell ref="AP30:AT31"/>
-    <mergeCell ref="AB15:AF16"/>
-    <mergeCell ref="N18:R19"/>
-    <mergeCell ref="AB18:AF19"/>
-    <mergeCell ref="N21:R22"/>
-    <mergeCell ref="U21:Y22"/>
-    <mergeCell ref="U27:Y28"/>
-    <mergeCell ref="AB27:AF28"/>
-    <mergeCell ref="U30:Y31"/>
-    <mergeCell ref="AB30:AF31"/>
-    <mergeCell ref="AI30:AM31"/>
-    <mergeCell ref="N67:R68"/>
-    <mergeCell ref="U67:Y68"/>
-    <mergeCell ref="N52:R53"/>
-    <mergeCell ref="U52:Y53"/>
-    <mergeCell ref="N55:R56"/>
-    <mergeCell ref="U55:Y56"/>
-    <mergeCell ref="N58:R59"/>
-    <mergeCell ref="U58:Y59"/>
+    <mergeCell ref="N70:R71"/>
+    <mergeCell ref="U70:Y71"/>
+    <mergeCell ref="N73:R74"/>
+    <mergeCell ref="U73:Y74"/>
+    <mergeCell ref="G76:K77"/>
     <mergeCell ref="AB33:AF34"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="N61:R62"/>
@@ -21000,11 +21200,34 @@
     <mergeCell ref="N49:R50"/>
     <mergeCell ref="U49:Y50"/>
     <mergeCell ref="U39:Y40"/>
-    <mergeCell ref="N70:R71"/>
-    <mergeCell ref="U70:Y71"/>
-    <mergeCell ref="N73:R74"/>
-    <mergeCell ref="U73:Y74"/>
-    <mergeCell ref="G76:K77"/>
+    <mergeCell ref="N67:R68"/>
+    <mergeCell ref="U67:Y68"/>
+    <mergeCell ref="N52:R53"/>
+    <mergeCell ref="U52:Y53"/>
+    <mergeCell ref="N55:R56"/>
+    <mergeCell ref="U55:Y56"/>
+    <mergeCell ref="N58:R59"/>
+    <mergeCell ref="U58:Y59"/>
+    <mergeCell ref="AP30:AT31"/>
+    <mergeCell ref="AB15:AF16"/>
+    <mergeCell ref="N18:R19"/>
+    <mergeCell ref="AB18:AF19"/>
+    <mergeCell ref="N21:R22"/>
+    <mergeCell ref="U21:Y22"/>
+    <mergeCell ref="U27:Y28"/>
+    <mergeCell ref="AB27:AF28"/>
+    <mergeCell ref="U30:Y31"/>
+    <mergeCell ref="AB30:AF31"/>
+    <mergeCell ref="AI30:AM31"/>
+    <mergeCell ref="G23:K24"/>
+    <mergeCell ref="U24:Y25"/>
+    <mergeCell ref="AB24:AF25"/>
+    <mergeCell ref="C6:G7"/>
+    <mergeCell ref="G9:K10"/>
+    <mergeCell ref="N9:R10"/>
+    <mergeCell ref="N12:R13"/>
+    <mergeCell ref="U12:Y13"/>
+    <mergeCell ref="U15:Y16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
